--- a/produccion_mensual.xlsx
+++ b/produccion_mensual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/200CB6E4CC9825CB/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F6516E-2714-462E-A190-CF9186DB884F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3308537-6789-42FE-979B-679D3A0007A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="140">
   <si>
     <t>Parcela</t>
   </si>
@@ -95,6 +95,9 @@
     <t>P007</t>
   </si>
   <si>
+    <t>Trigo</t>
+  </si>
+  <si>
     <t>P008</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
     <t>P009</t>
   </si>
   <si>
+    <t>Arroz</t>
+  </si>
+  <si>
     <t>P010</t>
   </si>
   <si>
@@ -114,6 +120,9 @@
   </si>
   <si>
     <t>Abril</t>
+  </si>
+  <si>
+    <t>trigo</t>
   </si>
   <si>
     <t>P013</t>
@@ -816,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -937,15 +946,15 @@
         <v>937</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>1227</v>
@@ -956,7 +965,7 @@
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -965,12 +974,12 @@
         <v>1515</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -984,10 +993,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>600</v>
@@ -998,21 +1007,21 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>1683</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1026,10 +1035,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>800</v>
@@ -1040,7 +1049,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1054,10 +1063,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1065,7 +1074,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1074,15 +1083,15 @@
         <v>741</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>506</v>
@@ -1093,10 +1102,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>1818</v>
@@ -1107,7 +1116,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1121,7 +1130,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -1135,7 +1144,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1149,24 +1158,24 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>410</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>1211</v>
@@ -1177,24 +1186,24 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>851</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>317</v>
@@ -1205,10 +1214,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -1216,10 +1225,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>1088</v>
@@ -1230,7 +1239,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -1244,10 +1253,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>225</v>
@@ -1258,7 +1267,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1272,7 +1281,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1283,10 +1292,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C34">
         <v>680</v>
@@ -1297,24 +1306,24 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <v>722</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>479</v>
@@ -1325,7 +1334,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -1334,15 +1343,15 @@
         <v>466</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>1798</v>
@@ -1353,7 +1362,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -1367,10 +1376,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>441</v>
@@ -1381,7 +1390,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -1392,10 +1401,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>723</v>
@@ -1406,10 +1415,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <v>1232</v>
@@ -1420,7 +1429,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -1434,10 +1443,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <v>928</v>
@@ -1448,24 +1457,24 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>1368</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>624</v>
@@ -1476,7 +1485,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -1490,21 +1499,21 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>298</v>
@@ -1515,7 +1524,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
         <v>14</v>
@@ -1529,10 +1538,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C52">
         <v>820</v>
@@ -1543,10 +1552,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C53">
         <v>668</v>
@@ -1557,10 +1566,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C54">
         <v>1514</v>
@@ -1571,24 +1580,24 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>957</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -1596,10 +1605,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C57">
         <v>612</v>
@@ -1610,7 +1619,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
@@ -1624,7 +1633,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
@@ -1638,10 +1647,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
@@ -1649,7 +1658,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
@@ -1663,10 +1672,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -1674,10 +1683,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C63">
         <v>378</v>
@@ -1688,7 +1697,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
         <v>5</v>
@@ -1702,7 +1711,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -1716,21 +1725,21 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C66">
         <v>1803</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -1744,7 +1753,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
@@ -1758,10 +1767,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>959</v>
@@ -1772,7 +1781,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
         <v>5</v>
@@ -1783,10 +1792,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C71">
         <v>1147</v>
@@ -1797,7 +1806,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
@@ -1811,10 +1820,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C73">
         <v>859</v>
@@ -1825,7 +1834,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -1839,10 +1848,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>1062</v>
@@ -1853,7 +1862,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -1867,10 +1876,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -1878,10 +1887,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C78">
         <v>1712</v>
@@ -1892,10 +1901,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C79">
         <v>281</v>
@@ -1906,7 +1915,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
@@ -1920,7 +1929,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
@@ -1934,10 +1943,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>1885</v>
@@ -1946,12 +1955,12 @@
         <v>12</v>
       </c>
       <c r="H82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
@@ -1965,10 +1974,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D84" t="s">
         <v>12</v>
@@ -1976,24 +1985,24 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C85">
         <v>927</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B86" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C86">
         <v>953</v>
@@ -2004,10 +2013,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C87">
         <v>1239</v>
@@ -2018,10 +2027,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C88">
         <v>329</v>
@@ -2032,21 +2041,21 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C89">
         <v>1335</v>
       </c>
       <c r="D89" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -2060,10 +2069,10 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B91" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C91">
         <v>432</v>
@@ -2074,7 +2083,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
@@ -2088,7 +2097,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
@@ -2102,10 +2111,10 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C94">
         <v>1554</v>
@@ -2116,7 +2125,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -2130,7 +2139,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
@@ -2144,7 +2153,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
         <v>14</v>
@@ -2158,10 +2167,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C98">
         <v>1101</v>
@@ -2172,7 +2181,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
@@ -2186,7 +2195,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
@@ -2200,10 +2209,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B101" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C101">
         <v>856</v>
@@ -2214,7 +2223,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -2228,7 +2237,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -2242,7 +2251,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
@@ -2256,7 +2265,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
@@ -2270,21 +2279,21 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C106">
         <v>1877</v>
       </c>
       <c r="D106" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -2298,10 +2307,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C108">
         <v>841</v>
@@ -2312,10 +2321,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C109">
         <v>1540</v>
@@ -2326,10 +2335,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C110">
         <v>1238</v>
@@ -2340,10 +2349,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C111">
         <v>1835</v>
@@ -2354,24 +2363,24 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C112">
         <v>1424</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C113">
         <v>475</v>
@@ -2382,10 +2391,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s">
         <v>6</v>
@@ -2393,7 +2402,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
         <v>14</v>
@@ -2407,10 +2416,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D116" t="s">
         <v>6</v>
@@ -2418,10 +2427,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C117">
         <v>214</v>
@@ -2432,10 +2441,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C118">
         <v>676</v>
@@ -2446,10 +2455,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C119">
         <v>1985</v>
@@ -2460,7 +2469,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
@@ -2474,10 +2483,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C121">
         <v>1342</v>
